--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H2">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I2">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J2">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.01683166884561</v>
+        <v>3.684362666666666</v>
       </c>
       <c r="N2">
-        <v>5.01683166884561</v>
+        <v>11.053088</v>
       </c>
       <c r="O2">
-        <v>0.05736962816091977</v>
+        <v>0.0397011572965827</v>
       </c>
       <c r="P2">
-        <v>0.05736962816091977</v>
+        <v>0.03970115729658269</v>
       </c>
       <c r="Q2">
-        <v>46.20948578134841</v>
+        <v>37.86728998997333</v>
       </c>
       <c r="R2">
-        <v>46.20948578134841</v>
+        <v>340.80560990976</v>
       </c>
       <c r="S2">
-        <v>0.01273695244402282</v>
+        <v>0.00914322522497016</v>
       </c>
       <c r="T2">
-        <v>0.01273695244402282</v>
+        <v>0.009143225224970157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H3">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I3">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J3">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.4306876836169</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
-        <v>82.4306876836169</v>
+        <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.9426303718390802</v>
+        <v>0.05429001496473517</v>
       </c>
       <c r="P3">
-        <v>0.9426303718390802</v>
+        <v>0.05429001496473517</v>
       </c>
       <c r="Q3">
-        <v>759.2600154629762</v>
+        <v>51.78226228701334</v>
       </c>
       <c r="R3">
-        <v>759.2600154629762</v>
+        <v>466.0403605831201</v>
       </c>
       <c r="S3">
-        <v>0.20927864801091</v>
+        <v>0.01250305704142032</v>
       </c>
       <c r="T3">
-        <v>0.20927864801091</v>
+        <v>0.01250305704142032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.517112246968</v>
+        <v>10.27784</v>
       </c>
       <c r="H4">
-        <v>14.517112246968</v>
+        <v>30.83352</v>
       </c>
       <c r="I4">
-        <v>0.3499146459778034</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J4">
-        <v>0.3499146459778034</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.01683166884561</v>
+        <v>0.09716666666666667</v>
       </c>
       <c r="N4">
-        <v>5.01683166884561</v>
+        <v>0.2915</v>
       </c>
       <c r="O4">
-        <v>0.05736962816091977</v>
+        <v>0.001047027523164011</v>
       </c>
       <c r="P4">
-        <v>0.05736962816091977</v>
+        <v>0.001047027523164011</v>
       </c>
       <c r="Q4">
-        <v>72.82990846077551</v>
+        <v>0.9986634533333333</v>
       </c>
       <c r="R4">
-        <v>72.82990846077551</v>
+        <v>8.987971079999999</v>
       </c>
       <c r="S4">
-        <v>0.02007447312780646</v>
+        <v>0.000241131722924743</v>
       </c>
       <c r="T4">
-        <v>0.02007447312780646</v>
+        <v>0.0002411317229247429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.517112246968</v>
+        <v>10.27784</v>
       </c>
       <c r="H5">
-        <v>14.517112246968</v>
+        <v>30.83352</v>
       </c>
       <c r="I5">
-        <v>0.3499146459778034</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J5">
-        <v>0.3499146459778034</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.4306876836169</v>
+        <v>83.98262666666666</v>
       </c>
       <c r="N5">
-        <v>82.4306876836169</v>
+        <v>251.94788</v>
       </c>
       <c r="O5">
-        <v>0.9426303718390802</v>
+        <v>0.9049618002155182</v>
       </c>
       <c r="P5">
-        <v>0.9426303718390802</v>
+        <v>0.9049618002155182</v>
       </c>
       <c r="Q5">
-        <v>1196.655545697829</v>
+        <v>863.1599996597332</v>
       </c>
       <c r="R5">
-        <v>1196.655545697829</v>
+        <v>7768.4399969376</v>
       </c>
       <c r="S5">
-        <v>0.3298401728499969</v>
+        <v>0.2084138126642758</v>
       </c>
       <c r="T5">
-        <v>0.3298401728499969</v>
+        <v>0.2084138126642758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3095708462816</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H6">
-        <v>2.3095708462816</v>
+        <v>43.704382</v>
       </c>
       <c r="I6">
-        <v>0.05566896854476481</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J6">
-        <v>0.05566896854476481</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.01683166884561</v>
+        <v>3.684362666666666</v>
       </c>
       <c r="N6">
-        <v>5.01683166884561</v>
+        <v>11.053088</v>
       </c>
       <c r="O6">
-        <v>0.05736962816091977</v>
+        <v>0.0397011572965827</v>
       </c>
       <c r="P6">
-        <v>0.05736962816091977</v>
+        <v>0.03970115729658269</v>
       </c>
       <c r="Q6">
-        <v>11.58672816306809</v>
+        <v>53.67426447017954</v>
       </c>
       <c r="R6">
-        <v>11.58672816306809</v>
+        <v>483.0683802316159</v>
       </c>
       <c r="S6">
-        <v>0.003193708025515096</v>
+        <v>0.01295988936534433</v>
       </c>
       <c r="T6">
-        <v>0.003193708025515096</v>
+        <v>0.01295988936534433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.3095708462816</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H7">
-        <v>2.3095708462816</v>
+        <v>43.704382</v>
       </c>
       <c r="I7">
-        <v>0.05566896854476481</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J7">
-        <v>0.05566896854476481</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.4306876836169</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N7">
-        <v>82.4306876836169</v>
+        <v>15.114731</v>
       </c>
       <c r="O7">
-        <v>0.9426303718390802</v>
+        <v>0.05429001496473517</v>
       </c>
       <c r="P7">
-        <v>0.9426303718390802</v>
+        <v>0.05429001496473517</v>
       </c>
       <c r="Q7">
-        <v>190.3795131130253</v>
+        <v>73.39777527236022</v>
       </c>
       <c r="R7">
-        <v>190.3795131130253</v>
+        <v>660.579977451242</v>
       </c>
       <c r="S7">
-        <v>0.05247526051924971</v>
+        <v>0.01772221858243962</v>
       </c>
       <c r="T7">
-        <v>0.05247526051924971</v>
+        <v>0.01772221858243962</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.4500077638178</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H8">
-        <v>15.4500077638178</v>
+        <v>43.704382</v>
       </c>
       <c r="I8">
-        <v>0.372400785022499</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J8">
-        <v>0.372400785022499</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.01683166884561</v>
+        <v>0.09716666666666667</v>
       </c>
       <c r="N8">
-        <v>5.01683166884561</v>
+        <v>0.2915</v>
       </c>
       <c r="O8">
-        <v>0.05736962816091977</v>
+        <v>0.001047027523164011</v>
       </c>
       <c r="P8">
-        <v>0.05736962816091977</v>
+        <v>0.001047027523164011</v>
       </c>
       <c r="Q8">
-        <v>77.51008823343167</v>
+        <v>1.415536372555555</v>
       </c>
       <c r="R8">
-        <v>77.51008823343167</v>
+        <v>12.739827353</v>
       </c>
       <c r="S8">
-        <v>0.02136449456357539</v>
+        <v>0.0003417875393734197</v>
       </c>
       <c r="T8">
-        <v>0.02136449456357539</v>
+        <v>0.0003417875393734197</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.4500077638178</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H9">
-        <v>15.4500077638178</v>
+        <v>43.704382</v>
       </c>
       <c r="I9">
-        <v>0.372400785022499</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J9">
-        <v>0.372400785022499</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>82.4306876836169</v>
+        <v>83.98262666666666</v>
       </c>
       <c r="N9">
-        <v>82.4306876836169</v>
+        <v>251.94788</v>
       </c>
       <c r="O9">
-        <v>0.9426303718390802</v>
+        <v>0.9049618002155182</v>
       </c>
       <c r="P9">
-        <v>0.9426303718390802</v>
+        <v>0.9049618002155182</v>
       </c>
       <c r="Q9">
-        <v>1273.554764688721</v>
+        <v>1223.469599067795</v>
       </c>
       <c r="R9">
-        <v>1273.554764688721</v>
+        <v>11011.22639161016</v>
       </c>
       <c r="S9">
-        <v>0.3510362904589236</v>
+        <v>0.2954121645130348</v>
       </c>
       <c r="T9">
-        <v>0.3510362904589236</v>
+        <v>0.2954121645130347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.650137</v>
+      </c>
+      <c r="H10">
+        <v>7.950411</v>
+      </c>
+      <c r="I10">
+        <v>0.05938308067649115</v>
+      </c>
+      <c r="J10">
+        <v>0.05938308067649114</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>3.684362666666666</v>
+      </c>
+      <c r="N10">
+        <v>11.053088</v>
+      </c>
+      <c r="O10">
+        <v>0.0397011572965827</v>
+      </c>
+      <c r="P10">
+        <v>0.03970115729658269</v>
+      </c>
+      <c r="Q10">
+        <v>9.764065824351999</v>
+      </c>
+      <c r="R10">
+        <v>87.87659241916799</v>
+      </c>
+      <c r="S10">
+        <v>0.002357577026693035</v>
+      </c>
+      <c r="T10">
+        <v>0.002357577026693035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.650137</v>
+      </c>
+      <c r="H11">
+        <v>7.950411</v>
+      </c>
+      <c r="I11">
+        <v>0.05938308067649115</v>
+      </c>
+      <c r="J11">
+        <v>0.05938308067649114</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.038243666666667</v>
+      </c>
+      <c r="N11">
+        <v>15.114731</v>
+      </c>
+      <c r="O11">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="P11">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="Q11">
+        <v>13.352035956049</v>
+      </c>
+      <c r="R11">
+        <v>120.168323604441</v>
+      </c>
+      <c r="S11">
+        <v>0.00322390833857878</v>
+      </c>
+      <c r="T11">
+        <v>0.00322390833857878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.650137</v>
+      </c>
+      <c r="H12">
+        <v>7.950411</v>
+      </c>
+      <c r="I12">
+        <v>0.05938308067649115</v>
+      </c>
+      <c r="J12">
+        <v>0.05938308067649114</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.09716666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.2915</v>
+      </c>
+      <c r="O12">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="P12">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="Q12">
+        <v>0.2575049785</v>
+      </c>
+      <c r="R12">
+        <v>2.3175448065</v>
+      </c>
+      <c r="S12">
+        <v>6.217571987855518E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.217571987855518E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.650137</v>
+      </c>
+      <c r="H13">
+        <v>7.950411</v>
+      </c>
+      <c r="I13">
+        <v>0.05938308067649115</v>
+      </c>
+      <c r="J13">
+        <v>0.05938308067649114</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>83.98262666666666</v>
+      </c>
+      <c r="N13">
+        <v>251.94788</v>
+      </c>
+      <c r="O13">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="P13">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="Q13">
+        <v>222.56546628652</v>
+      </c>
+      <c r="R13">
+        <v>2003.08919657868</v>
+      </c>
+      <c r="S13">
+        <v>0.05373941959134078</v>
+      </c>
+      <c r="T13">
+        <v>0.05373941959134077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.13170833333333</v>
+      </c>
+      <c r="H14">
+        <v>51.395125</v>
+      </c>
+      <c r="I14">
+        <v>0.3838796326697257</v>
+      </c>
+      <c r="J14">
+        <v>0.3838796326697257</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>3.684362666666666</v>
+      </c>
+      <c r="N14">
+        <v>11.053088</v>
+      </c>
+      <c r="O14">
+        <v>0.0397011572965827</v>
+      </c>
+      <c r="P14">
+        <v>0.03970115729658269</v>
+      </c>
+      <c r="Q14">
+        <v>63.11942659955555</v>
+      </c>
+      <c r="R14">
+        <v>568.0748393959999</v>
+      </c>
+      <c r="S14">
+        <v>0.01524046567957517</v>
+      </c>
+      <c r="T14">
+        <v>0.01524046567957516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.13170833333333</v>
+      </c>
+      <c r="H15">
+        <v>51.395125</v>
+      </c>
+      <c r="I15">
+        <v>0.3838796326697257</v>
+      </c>
+      <c r="J15">
+        <v>0.3838796326697257</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.038243666666667</v>
+      </c>
+      <c r="N15">
+        <v>15.114731</v>
+      </c>
+      <c r="O15">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="P15">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="Q15">
+        <v>86.31372100959723</v>
+      </c>
+      <c r="R15">
+        <v>776.8234890863752</v>
+      </c>
+      <c r="S15">
+        <v>0.02084083100229645</v>
+      </c>
+      <c r="T15">
+        <v>0.02084083100229645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.13170833333333</v>
+      </c>
+      <c r="H16">
+        <v>51.395125</v>
+      </c>
+      <c r="I16">
+        <v>0.3838796326697257</v>
+      </c>
+      <c r="J16">
+        <v>0.3838796326697257</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.09716666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.2915</v>
+      </c>
+      <c r="O16">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="P16">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="Q16">
+        <v>1.664630993055555</v>
+      </c>
+      <c r="R16">
+        <v>14.9816789375</v>
+      </c>
+      <c r="S16">
+        <v>0.0004019325409872934</v>
+      </c>
+      <c r="T16">
+        <v>0.0004019325409872933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.13170833333333</v>
+      </c>
+      <c r="H17">
+        <v>51.395125</v>
+      </c>
+      <c r="I17">
+        <v>0.3838796326697257</v>
+      </c>
+      <c r="J17">
+        <v>0.3838796326697257</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>83.98262666666666</v>
+      </c>
+      <c r="N17">
+        <v>251.94788</v>
+      </c>
+      <c r="O17">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="P17">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="Q17">
+        <v>1438.765865120555</v>
+      </c>
+      <c r="R17">
+        <v>12948.892786085</v>
+      </c>
+      <c r="S17">
+        <v>0.3473964034468668</v>
+      </c>
+      <c r="T17">
+        <v>0.3473964034468668</v>
       </c>
     </row>
   </sheetData>
